--- a/prograWebII/TPFinal/requerimiento/docs/Datos-TP.xlsx
+++ b/prograWebII/TPFinal/requerimiento/docs/Datos-TP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="335">
   <si>
     <t>Ciudad</t>
   </si>
@@ -1023,6 +1023,12 @@
   </si>
   <si>
     <t>EMB-120</t>
+  </si>
+  <si>
+    <t>Precio Primera</t>
+  </si>
+  <si>
+    <t>Precio Economy</t>
   </si>
 </sst>
 </file>
@@ -2875,7 +2881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2884,6 +2890,8 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2899,10 +2907,10 @@
         <v>328</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>320</v>
@@ -14386,7 +14394,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/prograWebII/TPFinal/requerimiento/docs/Datos-TP.xlsx
+++ b/prograWebII/TPFinal/requerimiento/docs/Datos-TP.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Aeropuertos" sheetId="2" r:id="rId1"/>
     <sheet name="Vuelos" sheetId="4" r:id="rId2"/>
     <sheet name="Aviones" sheetId="3" r:id="rId3"/>
+    <sheet name="Inserts Ciudad" sheetId="5" r:id="rId4"/>
+    <sheet name="Inserts Cronograma" sheetId="6" r:id="rId5"/>
+    <sheet name="Inserts Avion" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aeropuertos!$B$1:$D$99</definedName>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="355">
   <si>
     <t>Ciudad</t>
   </si>
@@ -1029,6 +1032,66 @@
   </si>
   <si>
     <t>Precio Economy</t>
+  </si>
+  <si>
+    <t>c_cod</t>
+  </si>
+  <si>
+    <t>c_desc</t>
+  </si>
+  <si>
+    <t>c_origen</t>
+  </si>
+  <si>
+    <t>c_destino</t>
+  </si>
+  <si>
+    <t>avion_cod</t>
+  </si>
+  <si>
+    <t>precio_economy</t>
+  </si>
+  <si>
+    <t>precio_primera</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>avion_capacidad</t>
+  </si>
+  <si>
+    <t>avion_filas_economy</t>
+  </si>
+  <si>
+    <t>avion_filas_primera</t>
+  </si>
+  <si>
+    <t>avion_col_economy</t>
+  </si>
+  <si>
+    <t>avion_col_primera</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,8 +1161,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1150,11 +1225,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,12 +1327,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFABCBC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1457,7 +1626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2879,9 +3048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F261" sqref="F2:F261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14394,7 +14563,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14568,4 +14737,7934 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="83.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B2,""" , """,C2, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVR" , "Alto Río Senguer");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B3,""" , """,C3, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZA" , "Azul");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZB" , "Bahía Blanca");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZS" , "Bariloche");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B6,""" , """,C6, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZI" , "Bolívar");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B7,""" , """,C7, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADO" , "Campo de Mayo");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B8,""" , """,C8, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAHE" , "Caviahue");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B9,""" , """,C9, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANW" , "Ceres");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B10,""" , """,C10, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACT" , "Chamical");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B11,""" , """,C11, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACP" , "Chepes");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B12,""" , """,C12, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANO" , "Chilecito");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B13,""" , """,C13, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATC" , "Clorinda");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B14,""" , """,C14, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVC" , "Comodoro Rivadavia");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B15,""" , """,C15, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACO" , "Córdoba");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B16,""" , """,C16, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAC" , "Concordia");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B17,""" , """,C17, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZC" , "Coronel Suárez");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B18,""" , """,C18, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARC" , "Corrientes");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B19,""" , """,C19, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATU" , "Curuzú Cuatiá");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B20,""" , """,C20, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZW" , "Cutral-Co");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B21,""" , """,C21, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZD" , "Dolores");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B22,""" , """,C22, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADD" , "Don Torcuato");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B23,""" , """,C23, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVB" , "El Bolsón");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B24,""" , """,C24, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWC" , "El Calafate");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B25,""" , """,C25, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWA" , "El Calafate");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B26,""" , """,C26, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADP" , "El Palomar");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B27,""" , """,C27, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVE" , "Esquel");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B28,""" , """,C28, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAEZ" , "Ezeiza");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B29,""" , """,C29, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARF" , "Formosa");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B30,""" , """,C30, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAMA" , "General Alvear");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B31,""" , """,C31, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZG" , "General Pico");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B32,""" , """,C32, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAHR" , "General Roca");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B33,""" , """,C33, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVJ" , "Ingeniero Jacobacci");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B34,""" , """,C34, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAK" , "Isla Martín García");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B35,""" , """,C35, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADJ" , "José C. Paz");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B36,""" , """,C36, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAJ" , "Junín");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B37,""" , """,C37, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOL" , "Laboulaye");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B38,""" , """,C38, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACC" , "La Cumbre");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B39,""" , """,C39, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADL" , "La Plata");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B40,""" , """,C40, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANL" , "La Rioja");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B41,""" , """,C41, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVH" , "Las Heras");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B42,""" , """,C42, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATK" , "Las Lomitas");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B43,""" , """,C43, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAMM" , "Malargüe");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B44,""" , """,C44, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZM" , "Mar del Plata");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B45,""" , """,C45, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAME" , "Mendoza");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B46,""" , """,C46, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOS" , "Merlo");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B47,""" , """,C47, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAEM" , "Miramar");</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B48,""" , """,C48, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARM" , "Monte Caseros");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B49,""" , """,C49, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADM" , "Morón");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B50,""" , """,C50, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZO" , "Necochea");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B51,""" , """,C51, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZN" , "Neuquén");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B52,""" , """,C52, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZF" , "Olavarría");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B53,""" , """,C53, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAP" , "Paraná");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B54,""" , """,C54, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARL" , "Paso de los Libres");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B55,""" , """,C55, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZP" , "Pehuajó");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B56,""" , """,C56, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SASJ" , "Perico");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B57,""" , """,C57, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWP" , "Perito Moreno");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B58,""" , """,C58, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARP" , "Posadas");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B59,""" , """,C59, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWD" , "Puerto Deseado");</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B60,""" , """,C60, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARI" , "Puerto Iguazú");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B61,""" , """,C61, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVY" , "Puerto Madryn");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B62,""" , """,C62, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWJ" , "Puerto San Julián");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B63,""" , """,C63, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWU" , "Puerto Santa Cruz");</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B64,""" , """,C64, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SASA" , "Presidencia Roque Saenz Peña");</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B65,""" , """,C65, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATR" , "Reconquista");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" t="str">
+        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B66,""" , """,C66, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARE" , "Resistencia");</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D98" si="1">CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B67,""" , """,C67, """);")</f>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOC" , "Río Cuarto");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWG" , "Río Gallegos");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWE" , "Río Grande");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWT" , "Río Turbio");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAR" , "Rosario");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADF" , "San Fernando");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANC" , "San Fernando del Valle de Catamarca");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANU" , "San Juan");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOU" , "San Luis");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAMR" , "San Rafael");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SASO" , "San Ramón de la Nueva Orán");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADS" , "San Justo");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANT" , "San Miguel de Tucumán");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZR" , "Santa Rosa");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZL" , "Santa Teresita");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANE" , "Santiago del Estero");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZY" , "San Martín de los Andes");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAV" , "Sauce Viejo");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAFS" , "Sunchales");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZT" , "Tandil");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAST" , "Tartagal");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANR" , "Termas de Río Hondo");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVT" , "Trelew");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZH" , "Tres Arroyos");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWH" , "Ushuaia");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVV" , "Viedma");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOD" , "Villa Dolores");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZV" , "Villa Gesell");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOR" , "Villa Reynolds");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAU" , "Villaguay");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAHZ" , "Zapala");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SABE" , "Buenos Aires");</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C98">
+    <cfRule type="duplicateValues" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B98">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H261"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H243" sqref="H243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="131.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1191</v>
+      </c>
+      <c r="F2">
+        <v>1464.93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( """,B2,""" , """,C2, """, ",D2, ", ",E2, ", ",F2, ", """,G2, """);")</f>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVR" , "SAZY", 3, 1191, 1464.93, "LU");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1836</v>
+      </c>
+      <c r="F3">
+        <v>2258.2799999999997</v>
+      </c>
+      <c r="G3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">CONCATENATE("INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( """,B3,""" , """,C3, """, ",D3, ", ",E3, ", ",F3, ", """,G3, """);")</f>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZA" , "SAZW", 2, 1836, 2258.28, "MA");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2497</v>
+      </c>
+      <c r="F4">
+        <v>3071.31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZB" , "SAZV", 1, 2497, 3071.31, "MI");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2161</v>
+      </c>
+      <c r="F5">
+        <v>2658.0299999999997</v>
+      </c>
+      <c r="G5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZS" , "SAZT", 4, 2161, 2658.03, "JU");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1228</v>
+      </c>
+      <c r="F6">
+        <v>1510.44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZI" , "SAZS", 3, 1228, 1510.44, "VI");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>968</v>
+      </c>
+      <c r="F7">
+        <v>1190.6399999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADO" , "SAZP", 2, 968, 1190.64, "SA");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1281</v>
+      </c>
+      <c r="F8">
+        <v>1575.6299999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAHE" , "SAZO", 3, 1281, 1575.63, "DO");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2085</v>
+      </c>
+      <c r="F9">
+        <v>2564.5500000000002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANW" , "SAZN", 2, 2085, 2564.55, "LU");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1656</v>
+      </c>
+      <c r="F10">
+        <v>2036.8799999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>344</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACT" , "SAZM", 3, 1656, 2036.88, "MA");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1982</v>
+      </c>
+      <c r="F11">
+        <v>2437.86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACP" , "SAZL", 2, 1982, 2437.86, "MI");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>924</v>
+      </c>
+      <c r="F12">
+        <v>1136.52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANO" , "SAZI", 1, 924, 1136.52, "JU");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2108</v>
+      </c>
+      <c r="F13">
+        <v>2592.84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SATC" , "SAZH", 4, 2108, 2592.84, "VI");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>915</v>
+      </c>
+      <c r="F14">
+        <v>1125.45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVC" , "SAZG", 2, 915, 1125.45, "SA");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1182</v>
+      </c>
+      <c r="F15">
+        <v>1453.86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>349</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZF", 2, 1182, 1453.86, "DO");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1587</v>
+      </c>
+      <c r="F16">
+        <v>1952.01</v>
+      </c>
+      <c r="G16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAAC" , "SAZD", 2, 1587, 1952.01, "LU");</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1564</v>
+      </c>
+      <c r="F17">
+        <v>1923.72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>344</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZC" , "SAZC", 2, 1564, 1923.72, "MA");</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2477</v>
+      </c>
+      <c r="F18">
+        <v>3046.71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SARC" , "SAZB", 3, 2477, 3046.71, "MI");</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2491</v>
+      </c>
+      <c r="F19">
+        <v>3063.93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SATU" , "SAZA", 4, 2491, 3063.93, "JU");</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1555</v>
+      </c>
+      <c r="F20">
+        <v>1912.6499999999999</v>
+      </c>
+      <c r="G20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZW" , "SAWU", 1, 1555, 1912.65, "VI");</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2451</v>
+      </c>
+      <c r="F21">
+        <v>3014.73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZD" , "SAWT", 3, 2451, 3014.73, "SA");</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1762</v>
+      </c>
+      <c r="F22">
+        <v>2167.2599999999998</v>
+      </c>
+      <c r="G22" t="s">
+        <v>349</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADD" , "SAWP", 3, 1762, 2167.26, "DO");</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2314</v>
+      </c>
+      <c r="F23">
+        <v>2846.22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>343</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVB" , "SAWJ", 2, 2314, 2846.22, "LU");</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1661</v>
+      </c>
+      <c r="F24">
+        <v>2043.03</v>
+      </c>
+      <c r="G24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWC" , "SAWH", 4, 1661, 2043.03, "MA");</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1317</v>
+      </c>
+      <c r="F25">
+        <v>1619.91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWA" , "SAWG", 3, 1317, 1619.91, "MI");</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2257</v>
+      </c>
+      <c r="F26">
+        <v>2776.11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>346</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADP" , "SAWE", 1, 2257, 2776.11, "JU");</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2021</v>
+      </c>
+      <c r="F27">
+        <v>2485.83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>347</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVE" , "SAWD", 3, 2021, 2485.83, "VI");</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1933</v>
+      </c>
+      <c r="F28">
+        <v>2377.59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>348</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAEZ" , "SAWC", 1, 1933, 2377.59, "SA");</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>950</v>
+      </c>
+      <c r="F29">
+        <v>1168.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>349</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SARF" , "SAWA", 3, 950, 1168.5, "DO");</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1216</v>
+      </c>
+      <c r="F30">
+        <v>1495.68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAMA" , "SAVY", 1, 1216, 1495.68, "LU");</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1946</v>
+      </c>
+      <c r="F31">
+        <v>2393.58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZG" , "SAVV", 2, 1946, 2393.58, "MA");</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1889</v>
+      </c>
+      <c r="F32">
+        <v>2323.4699999999998</v>
+      </c>
+      <c r="G32" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAHR" , "SAVT", 2, 1889, 2323.47, "MI");</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>887</v>
+      </c>
+      <c r="F33">
+        <v>1091.01</v>
+      </c>
+      <c r="G33" t="s">
+        <v>346</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVJ" , "SAVR", 2, 887, 1091.01, "JU");</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1131</v>
+      </c>
+      <c r="F34">
+        <v>1391.1299999999999</v>
+      </c>
+      <c r="G34" t="s">
+        <v>347</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAAK" , "SAVJ", 4, 1131, 1391.13, "VI");</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>913</v>
+      </c>
+      <c r="F35">
+        <v>1122.99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADJ" , "SAVH", 1, 913, 1122.99, "SA");</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2326</v>
+      </c>
+      <c r="F36">
+        <v>2860.98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>349</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAAJ" , "SAVE", 4, 2326, 2860.98, "DO");</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1306</v>
+      </c>
+      <c r="F37">
+        <v>1606.3799999999999</v>
+      </c>
+      <c r="G37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAOL" , "SAVC", 4, 1306, 1606.38, "LU");</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1721</v>
+      </c>
+      <c r="F38">
+        <v>2116.83</v>
+      </c>
+      <c r="G38" t="s">
+        <v>344</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACC" , "SAVB", 2, 1721, 2116.83, "MA");</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2181</v>
+      </c>
+      <c r="F39">
+        <v>2682.63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>345</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADL" , "SATU", 3, 2181, 2682.63, "MI");</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1821</v>
+      </c>
+      <c r="F40">
+        <v>2239.83</v>
+      </c>
+      <c r="G40" t="s">
+        <v>346</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANL" , "SATR", 2, 1821, 2239.83, "JU");</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1956</v>
+      </c>
+      <c r="F41">
+        <v>2405.88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>347</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVH" , "SATK", 2, 1956, 2405.88, "VI");</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2209</v>
+      </c>
+      <c r="F42">
+        <v>2717.07</v>
+      </c>
+      <c r="G42" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SATK" , "SATC", 4, 2209, 2717.07, "SA");</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2197</v>
+      </c>
+      <c r="F43">
+        <v>2702.31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>349</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAMM" , "SAST", 1, 2197, 2702.31, "DO");</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1358</v>
+      </c>
+      <c r="F44">
+        <v>1670.34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZM" , "SASO", 1, 1358, 1670.34, "LU");</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>895</v>
+      </c>
+      <c r="F45">
+        <v>1100.8499999999999</v>
+      </c>
+      <c r="G45" t="s">
+        <v>344</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAME" , "SASJ", 4, 895, 1100.85, "MA");</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>847</v>
+      </c>
+      <c r="F46">
+        <v>1041.81</v>
+      </c>
+      <c r="G46" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAOS" , "SASA", 4, 847, 1041.81, "MI");</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2045</v>
+      </c>
+      <c r="F47">
+        <v>2515.35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>346</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAEM" , "SASA", 2, 2045, 2515.35, "JU");</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1109</v>
+      </c>
+      <c r="F48">
+        <v>1364.07</v>
+      </c>
+      <c r="G48" t="s">
+        <v>347</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SARM" , "SARP", 3, 1109, 1364.07, "VI");</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1763</v>
+      </c>
+      <c r="F49">
+        <v>2168.4899999999998</v>
+      </c>
+      <c r="G49" t="s">
+        <v>343</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADM" , "SARM", 2, 1763, 2168.49, "LU");</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1665</v>
+      </c>
+      <c r="F50">
+        <v>2047.95</v>
+      </c>
+      <c r="G50" t="s">
+        <v>344</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZO" , "SARL", 1, 1665, 2047.95, "MA");</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1809</v>
+      </c>
+      <c r="F51">
+        <v>2225.0700000000002</v>
+      </c>
+      <c r="G51" t="s">
+        <v>345</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZN" , "SARI", 2, 1809, 2225.07, "MI");</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1841</v>
+      </c>
+      <c r="F52">
+        <v>2264.4299999999998</v>
+      </c>
+      <c r="G52" t="s">
+        <v>346</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZF" , "SARF", 2, 1841, 2264.43, "JU");</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>1079</v>
+      </c>
+      <c r="F53">
+        <v>1327.17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>347</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAAP" , "SARE", 3, 1079, 1327.17, "VI");</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>1108</v>
+      </c>
+      <c r="F54">
+        <v>1362.84</v>
+      </c>
+      <c r="G54" t="s">
+        <v>348</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SARL" , "SARC", 4, 1108, 1362.84, "SA");</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2112</v>
+      </c>
+      <c r="F55">
+        <v>2597.7599999999998</v>
+      </c>
+      <c r="G55" t="s">
+        <v>349</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZP" , "SAOU", 2, 2112, 2597.76, "DO");</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2412</v>
+      </c>
+      <c r="F56">
+        <v>2966.7599999999998</v>
+      </c>
+      <c r="G56" t="s">
+        <v>343</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SASJ" , "SAOS", 2, 2412, 2966.76, "LU");</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1980</v>
+      </c>
+      <c r="F57">
+        <v>2435.4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>344</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWP" , "SAOR", 1, 1980, 2435.4, "MA");</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>862</v>
+      </c>
+      <c r="F58">
+        <v>1060.26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>345</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SARP" , "SAOL", 4, 862, 1060.26, "MI");</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1525</v>
+      </c>
+      <c r="F59">
+        <v>1875.75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>346</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWD" , "SAOD", 1, 1525, 1875.75, "JU");</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2229</v>
+      </c>
+      <c r="F60">
+        <v>2741.67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>347</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SARI" , "SAOC", 3, 2229, 2741.67, "VI");</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>870</v>
+      </c>
+      <c r="F61">
+        <v>1070.0999999999999</v>
+      </c>
+      <c r="G61" t="s">
+        <v>348</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVY" , "SANW", 4, 870, 1070.1, "SA");</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2166</v>
+      </c>
+      <c r="F62">
+        <v>2664.18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>349</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWJ" , "SANU", 2, 2166, 2664.18, "DO");</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1173</v>
+      </c>
+      <c r="F63">
+        <v>1442.79</v>
+      </c>
+      <c r="G63" t="s">
+        <v>343</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWU" , "SANT", 3, 1173, 1442.79, "LU");</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2001</v>
+      </c>
+      <c r="F64">
+        <v>2461.23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>344</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SASA" , "SANR", 2, 2001, 2461.23, "MA");</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2217</v>
+      </c>
+      <c r="F65">
+        <v>2726.91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>345</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SATR" , "SANO", 1, 2217, 2726.91, "MI");</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2334</v>
+      </c>
+      <c r="F66">
+        <v>2870.82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>346</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SARE" , "SANL", 1, 2334, 2870.82, "JU");</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>2014</v>
+      </c>
+      <c r="F67">
+        <v>2477.2199999999998</v>
+      </c>
+      <c r="G67" t="s">
+        <v>347</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="1">CONCATENATE("INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( """,B67,""" , """,C67, """, ",D67, ", ",E67, ", ",F67, ", """,G67, """);")</f>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAOC" , "SANE", 1, 2014, 2477.22, "VI");</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1462</v>
+      </c>
+      <c r="F68">
+        <v>1798.26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>348</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWG" , "SANC", 1, 1462, 1798.26, "SA");</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2269</v>
+      </c>
+      <c r="F69">
+        <v>2790.87</v>
+      </c>
+      <c r="G69" t="s">
+        <v>349</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWE" , "SAMR", 1, 2269, 2790.87, "DO");</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2205</v>
+      </c>
+      <c r="F70">
+        <v>2712.15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>343</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWT" , "SAMM", 2, 2205, 2712.15, "LU");</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1097</v>
+      </c>
+      <c r="F71">
+        <v>1349.31</v>
+      </c>
+      <c r="G71" t="s">
+        <v>344</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAAR" , "SAME", 1, 1097, 1349.31, "MA");</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>989</v>
+      </c>
+      <c r="F72">
+        <v>1216.47</v>
+      </c>
+      <c r="G72" t="s">
+        <v>345</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SASA" , "SAMA", 1, 989, 1216.47, "MI");</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>2357</v>
+      </c>
+      <c r="F73">
+        <v>2899.11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>346</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADF" , "SAHZ", 3, 2357, 2899.11, "JU");</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>1716</v>
+      </c>
+      <c r="F74">
+        <v>2110.6799999999998</v>
+      </c>
+      <c r="G74" t="s">
+        <v>347</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANC" , "SAHR", 4, 1716, 2110.68, "VI");</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>1387</v>
+      </c>
+      <c r="F75">
+        <v>1706.01</v>
+      </c>
+      <c r="G75" t="s">
+        <v>348</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANU" , "SAHE", 4, 1387, 1706.01, "SA");</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1032</v>
+      </c>
+      <c r="F76">
+        <v>1269.3599999999999</v>
+      </c>
+      <c r="G76" t="s">
+        <v>349</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAOU" , "SAFS", 2, 1032, 1269.36, "DO");</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>1577</v>
+      </c>
+      <c r="F77">
+        <v>1939.71</v>
+      </c>
+      <c r="G77" t="s">
+        <v>343</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAMR" , "SAEZ", 3, 1577, 1939.71, "LU");</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1456</v>
+      </c>
+      <c r="F78">
+        <v>1790.8799999999999</v>
+      </c>
+      <c r="G78" t="s">
+        <v>344</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SASO" , "SAEM", 2, 1456, 1790.88, "MA");</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1342</v>
+      </c>
+      <c r="F79">
+        <v>1650.66</v>
+      </c>
+      <c r="G79" t="s">
+        <v>345</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SADS" , "SADS", 1, 1342, 1650.66, "MI");</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>1632</v>
+      </c>
+      <c r="F80">
+        <v>2007.36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>346</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANT" , "SADP", 3, 1632, 2007.36, "JU");</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>2414</v>
+      </c>
+      <c r="F81">
+        <v>2969.22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>347</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZR" , "SADO", 3, 2414, 2969.22, "VI");</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2350</v>
+      </c>
+      <c r="F82">
+        <v>2890.5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>348</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZL" , "SADM", 2, 2350, 2890.5, "SA");</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1840</v>
+      </c>
+      <c r="F83">
+        <v>2263.1999999999998</v>
+      </c>
+      <c r="G83" t="s">
+        <v>349</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANE" , "SADL", 3, 1840, 2263.2, "DO");</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>2095</v>
+      </c>
+      <c r="F84">
+        <v>2576.85</v>
+      </c>
+      <c r="G84" t="s">
+        <v>343</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZY" , "SADJ", 3, 2095, 2576.85, "LU");</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1763</v>
+      </c>
+      <c r="F85">
+        <v>2168.4899999999998</v>
+      </c>
+      <c r="G85" t="s">
+        <v>344</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAAV" , "SADF", 1, 1763, 2168.49, "MA");</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>2284</v>
+      </c>
+      <c r="F86">
+        <v>2809.32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>345</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAFS" , "SADD", 2, 2284, 2809.32, "MI");</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>2272</v>
+      </c>
+      <c r="F87">
+        <v>2794.56</v>
+      </c>
+      <c r="G87" t="s">
+        <v>346</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZT" , "SACT", 3, 2272, 2794.56, "JU");</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>1849</v>
+      </c>
+      <c r="F88">
+        <v>2274.27</v>
+      </c>
+      <c r="G88" t="s">
+        <v>347</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAST" , "SACP", 4, 1849, 2274.27, "VI");</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>1552</v>
+      </c>
+      <c r="F89">
+        <v>1908.96</v>
+      </c>
+      <c r="G89" t="s">
+        <v>343</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SANR" , "SACO", 2, 1552, 1908.96, "LU");</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2472</v>
+      </c>
+      <c r="F90">
+        <v>3040.56</v>
+      </c>
+      <c r="G90" t="s">
+        <v>344</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVT" , "SACC", 2, 2472, 3040.56, "MA");</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2390</v>
+      </c>
+      <c r="F91">
+        <v>2939.7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>345</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZH" , "SABE", 2, 2390, 2939.7, "MI");</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>1498</v>
+      </c>
+      <c r="F92">
+        <v>1842.54</v>
+      </c>
+      <c r="G92" t="s">
+        <v>346</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAWH" , "SAAV", 3, 1498, 1842.54, "JU");</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
+        <v>301</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>1183</v>
+      </c>
+      <c r="F93">
+        <v>1455.09</v>
+      </c>
+      <c r="G93" t="s">
+        <v>347</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAVV" , "SAAU", 4, 1183, 1455.09, "VI");</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>1322</v>
+      </c>
+      <c r="F94">
+        <v>1626.06</v>
+      </c>
+      <c r="G94" t="s">
+        <v>348</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAOD" , "SAAR", 2, 1322, 1626.06, "SA");</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>1227</v>
+      </c>
+      <c r="F95">
+        <v>1509.21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>349</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAZV" , "SAAP", 2, 1227, 1509.21, "DO");</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>1546</v>
+      </c>
+      <c r="F96">
+        <v>1901.58</v>
+      </c>
+      <c r="G96" t="s">
+        <v>343</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAOR" , "SAAK", 3, 1546, 1901.58, "LU");</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>830</v>
+      </c>
+      <c r="F97">
+        <v>1020.9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>344</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAAU" , "SAAJ", 2, 830, 1020.9, "MA");</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1973</v>
+      </c>
+      <c r="F98">
+        <v>2426.79</v>
+      </c>
+      <c r="G98" t="s">
+        <v>345</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SAHZ" , "SAAC", 2, 1973, 2426.79, "MI");</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2477</v>
+      </c>
+      <c r="F99">
+        <v>3046.71</v>
+      </c>
+      <c r="G99" t="s">
+        <v>346</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADO", 2, 2477, 3046.71, "JU");</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>2327</v>
+      </c>
+      <c r="F100">
+        <v>2862.21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>347</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAHE", 1, 2327, 2862.21, "VI");</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1071</v>
+      </c>
+      <c r="F101">
+        <v>1317.33</v>
+      </c>
+      <c r="G101" t="s">
+        <v>348</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANW", 1, 1071, 1317.33, "SA");</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>2312</v>
+      </c>
+      <c r="F102">
+        <v>2843.7599999999998</v>
+      </c>
+      <c r="G102" t="s">
+        <v>349</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SACT", 4, 2312, 2843.76, "DO");</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>980</v>
+      </c>
+      <c r="F103">
+        <v>1205.4000000000001</v>
+      </c>
+      <c r="G103" t="s">
+        <v>343</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SACP", 3, 980, 1205.4, "LU");</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>2138</v>
+      </c>
+      <c r="F104">
+        <v>2629.74</v>
+      </c>
+      <c r="G104" t="s">
+        <v>344</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANO", 4, 2138, 2629.74, "MA");</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1947</v>
+      </c>
+      <c r="F105">
+        <v>2394.81</v>
+      </c>
+      <c r="G105" t="s">
+        <v>345</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SATC", 1, 1947, 2394.81, "MI");</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>958</v>
+      </c>
+      <c r="F106">
+        <v>1178.3399999999999</v>
+      </c>
+      <c r="G106" t="s">
+        <v>346</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVC", 1, 958, 1178.34, "JU");</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>2083</v>
+      </c>
+      <c r="F107">
+        <v>2562.09</v>
+      </c>
+      <c r="G107" t="s">
+        <v>347</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SACO", 1, 2083, 2562.09, "VI");</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>2093</v>
+      </c>
+      <c r="F108">
+        <v>2574.39</v>
+      </c>
+      <c r="G108" t="s">
+        <v>348</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAAC", 3, 2093, 2574.39, "SA");</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>1062</v>
+      </c>
+      <c r="F109">
+        <v>1306.26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>349</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZC", 3, 1062, 1306.26, "DO");</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>1376</v>
+      </c>
+      <c r="F110">
+        <v>1692.48</v>
+      </c>
+      <c r="G110" t="s">
+        <v>343</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SARC", 3, 1376, 1692.48, "LU");</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1429</v>
+      </c>
+      <c r="F111">
+        <v>1757.67</v>
+      </c>
+      <c r="G111" t="s">
+        <v>344</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SATU", 1, 1429, 1757.67, "MA");</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>1159</v>
+      </c>
+      <c r="F112">
+        <v>1425.57</v>
+      </c>
+      <c r="G112" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZW", 4, 1159, 1425.57, "MI");</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1741</v>
+      </c>
+      <c r="F113">
+        <v>2141.4299999999998</v>
+      </c>
+      <c r="G113" t="s">
+        <v>346</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZD", 1, 1741, 2141.43, "JU");</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>2395</v>
+      </c>
+      <c r="F114">
+        <v>2945.85</v>
+      </c>
+      <c r="G114" t="s">
+        <v>347</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADD", 3, 2395, 2945.85, "VI");</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>1159</v>
+      </c>
+      <c r="F115">
+        <v>1425.57</v>
+      </c>
+      <c r="G115" t="s">
+        <v>348</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVB", 3, 1159, 1425.57, "SA");</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1334</v>
+      </c>
+      <c r="F116">
+        <v>1640.82</v>
+      </c>
+      <c r="G116" t="s">
+        <v>349</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWC", 1, 1334, 1640.82, "DO");</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>1792</v>
+      </c>
+      <c r="F117">
+        <v>2204.16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>343</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWA", 3, 1792, 2204.16, "LU");</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>1234</v>
+      </c>
+      <c r="F118">
+        <v>1517.82</v>
+      </c>
+      <c r="G118" t="s">
+        <v>344</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADP", 3, 1234, 1517.82, "MA");</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>1954</v>
+      </c>
+      <c r="F119">
+        <v>2403.42</v>
+      </c>
+      <c r="G119" t="s">
+        <v>345</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVE", 3, 1954, 2403.42, "MI");</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1237</v>
+      </c>
+      <c r="F120">
+        <v>1521.51</v>
+      </c>
+      <c r="G120" t="s">
+        <v>346</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAEZ", 1, 1237, 1521.51, "JU");</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>1163</v>
+      </c>
+      <c r="F121">
+        <v>1430.49</v>
+      </c>
+      <c r="G121" t="s">
+        <v>347</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SARF", 2, 1163, 1430.49, "VI");</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>1653</v>
+      </c>
+      <c r="F122">
+        <v>2033.19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>348</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAMA", 3, 1653, 2033.19, "SA");</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B123" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>1757</v>
+      </c>
+      <c r="F123">
+        <v>2161.11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>349</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZG", 2, 1757, 2161.11, "DO");</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2321</v>
+      </c>
+      <c r="F124">
+        <v>2854.83</v>
+      </c>
+      <c r="G124" t="s">
+        <v>343</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAHR", 2, 2321, 2854.83, "LU");</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B125" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1237</v>
+      </c>
+      <c r="F125">
+        <v>1521.51</v>
+      </c>
+      <c r="G125" t="s">
+        <v>344</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVJ", 1, 1237, 1521.51, "MA");</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>1846</v>
+      </c>
+      <c r="F126">
+        <v>2270.58</v>
+      </c>
+      <c r="G126" t="s">
+        <v>345</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAAK", 3, 1846, 2270.58, "MI");</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>2188</v>
+      </c>
+      <c r="F127">
+        <v>2691.24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>346</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADJ", 4, 2188, 2691.24, "JU");</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>1617</v>
+      </c>
+      <c r="F128">
+        <v>1988.91</v>
+      </c>
+      <c r="G128" t="s">
+        <v>347</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAAJ", 2, 1617, 1988.91, "VI");</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>1105</v>
+      </c>
+      <c r="F129">
+        <v>1359.15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>343</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAOL", 4, 1105, 1359.15, "LU");</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B130" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>1610</v>
+      </c>
+      <c r="F130">
+        <v>1980.3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>344</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SACC", 3, 1610, 1980.3, "MA");</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>1871</v>
+      </c>
+      <c r="F131">
+        <v>2301.33</v>
+      </c>
+      <c r="G131" t="s">
+        <v>345</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H194" si="2">CONCATENATE("INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( """,B131,""" , """,C131, """, ",D131, ", ",E131, ", ",F131, ", """,G131, """);")</f>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADL", 4, 1871, 2301.33, "MI");</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1369</v>
+      </c>
+      <c r="F132">
+        <v>1683.87</v>
+      </c>
+      <c r="G132" t="s">
+        <v>346</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANL", 1, 1369, 1683.87, "JU");</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>1995</v>
+      </c>
+      <c r="F133">
+        <v>2453.85</v>
+      </c>
+      <c r="G133" t="s">
+        <v>347</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVH", 2, 1995, 2453.85, "VI");</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>2139</v>
+      </c>
+      <c r="F134">
+        <v>2630.97</v>
+      </c>
+      <c r="G134" t="s">
+        <v>348</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SATK", 1, 2139, 2630.97, "SA");</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>2236</v>
+      </c>
+      <c r="F135">
+        <v>2750.2799999999997</v>
+      </c>
+      <c r="G135" t="s">
+        <v>349</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAMM", 3, 2236, 2750.28, "DO");</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>1275</v>
+      </c>
+      <c r="F136">
+        <v>1568.25</v>
+      </c>
+      <c r="G136" t="s">
+        <v>343</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZM", 4, 1275, 1568.25, "LU");</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>1515</v>
+      </c>
+      <c r="F137">
+        <v>1863.45</v>
+      </c>
+      <c r="G137" t="s">
+        <v>344</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAME", 3, 1515, 1863.45, "MA");</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>2487</v>
+      </c>
+      <c r="F138">
+        <v>3059.0099999999998</v>
+      </c>
+      <c r="G138" t="s">
+        <v>345</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAOS", 4, 2487, 3059.01, "MI");</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>2163</v>
+      </c>
+      <c r="F139">
+        <v>2660.49</v>
+      </c>
+      <c r="G139" t="s">
+        <v>346</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAEM", 4, 2163, 2660.49, "JU");</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>2414</v>
+      </c>
+      <c r="F140">
+        <v>2969.22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>347</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SARM", 1, 2414, 2969.22, "VI");</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>2399</v>
+      </c>
+      <c r="F141">
+        <v>2950.77</v>
+      </c>
+      <c r="G141" t="s">
+        <v>348</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADM", 4, 2399, 2950.77, "SA");</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>1905</v>
+      </c>
+      <c r="F142">
+        <v>2343.15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>349</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZO", 2, 1905, 2343.15, "DO");</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>2457</v>
+      </c>
+      <c r="F143">
+        <v>3022.11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>343</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZN", 1, 2457, 3022.11, "LU");</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>1366</v>
+      </c>
+      <c r="F144">
+        <v>1680.18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>344</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZF", 2, 1366, 1680.18, "MA");</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>2474</v>
+      </c>
+      <c r="F145">
+        <v>3043.02</v>
+      </c>
+      <c r="G145" t="s">
+        <v>345</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAAP", 3, 2474, 3043.02, "MI");</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>1201</v>
+      </c>
+      <c r="F146">
+        <v>1477.23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>346</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SARL", 2, 1201, 1477.23, "JU");</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>2197</v>
+      </c>
+      <c r="F147">
+        <v>2702.31</v>
+      </c>
+      <c r="G147" t="s">
+        <v>347</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZP", 3, 2197, 2702.31, "VI");</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1228</v>
+      </c>
+      <c r="F148">
+        <v>1510.44</v>
+      </c>
+      <c r="G148" t="s">
+        <v>348</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SASJ", 1, 1228, 1510.44, "SA");</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>1796</v>
+      </c>
+      <c r="F149">
+        <v>2209.08</v>
+      </c>
+      <c r="G149" t="s">
+        <v>349</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWP", 3, 1796, 2209.08, "DO");</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>2469</v>
+      </c>
+      <c r="F150">
+        <v>3036.87</v>
+      </c>
+      <c r="G150" t="s">
+        <v>343</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SARP", 1, 2469, 3036.87, "LU");</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1629</v>
+      </c>
+      <c r="F151">
+        <v>2003.67</v>
+      </c>
+      <c r="G151" t="s">
+        <v>344</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWD", 1, 1629, 2003.67, "MA");</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>1856</v>
+      </c>
+      <c r="F152">
+        <v>2282.88</v>
+      </c>
+      <c r="G152" t="s">
+        <v>345</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SARI", 2, 1856, 2282.88, "MI");</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>952</v>
+      </c>
+      <c r="F153">
+        <v>1170.96</v>
+      </c>
+      <c r="G153" t="s">
+        <v>346</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVY", 1, 952, 1170.96, "JU");</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>834</v>
+      </c>
+      <c r="F154">
+        <v>1025.82</v>
+      </c>
+      <c r="G154" t="s">
+        <v>347</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWJ", 4, 834, 1025.82, "VI");</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>2372</v>
+      </c>
+      <c r="F155">
+        <v>2917.56</v>
+      </c>
+      <c r="G155" t="s">
+        <v>348</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWU", 3, 2372, 2917.56, "SA");</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1249</v>
+      </c>
+      <c r="F156">
+        <v>1536.27</v>
+      </c>
+      <c r="G156" t="s">
+        <v>349</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SASA", 1, 1249, 1536.27, "DO");</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1951</v>
+      </c>
+      <c r="F157">
+        <v>2399.73</v>
+      </c>
+      <c r="G157" t="s">
+        <v>343</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SATR", 2, 1951, 2399.73, "LU");</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>1767</v>
+      </c>
+      <c r="F158">
+        <v>2173.41</v>
+      </c>
+      <c r="G158" t="s">
+        <v>344</v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SARE", 3, 1767, 2173.41, "MA");</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>918</v>
+      </c>
+      <c r="F159">
+        <v>1129.1399999999999</v>
+      </c>
+      <c r="G159" t="s">
+        <v>345</v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAOC", 2, 918, 1129.14, "MI");</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160">
+        <v>2014</v>
+      </c>
+      <c r="F160">
+        <v>2477.2199999999998</v>
+      </c>
+      <c r="G160" t="s">
+        <v>346</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWG", 4, 2014, 2477.22, "JU");</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>1437</v>
+      </c>
+      <c r="F161">
+        <v>1767.51</v>
+      </c>
+      <c r="G161" t="s">
+        <v>347</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWE", 3, 1437, 1767.51, "VI");</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>1450</v>
+      </c>
+      <c r="F162">
+        <v>1783.5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>348</v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWT", 4, 1450, 1783.5, "SA");</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>933</v>
+      </c>
+      <c r="F163">
+        <v>1147.5899999999999</v>
+      </c>
+      <c r="G163" t="s">
+        <v>349</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAAR", 2, 933, 1147.59, "DO");</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1140</v>
+      </c>
+      <c r="F164">
+        <v>1402.2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>343</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SASA", 1, 1140, 1402.2, "LU");</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>2264</v>
+      </c>
+      <c r="F165">
+        <v>2784.72</v>
+      </c>
+      <c r="G165" t="s">
+        <v>344</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADF", 4, 2264, 2784.72, "MA");</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B166" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>2404</v>
+      </c>
+      <c r="F166">
+        <v>2956.92</v>
+      </c>
+      <c r="G166" t="s">
+        <v>345</v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANC", 1, 2404, 2956.92, "MI");</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1166</v>
+      </c>
+      <c r="F167">
+        <v>1434.18</v>
+      </c>
+      <c r="G167" t="s">
+        <v>346</v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANU", 1, 1166, 1434.18, "JU");</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B168" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>1519</v>
+      </c>
+      <c r="F168">
+        <v>1868.37</v>
+      </c>
+      <c r="G168" t="s">
+        <v>347</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAOU", 2, 1519, 1868.37, "VI");</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B169" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>1784</v>
+      </c>
+      <c r="F169">
+        <v>2194.3200000000002</v>
+      </c>
+      <c r="G169" t="s">
+        <v>343</v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAMR", 3, 1784, 2194.32, "LU");</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>2445</v>
+      </c>
+      <c r="F170">
+        <v>3007.35</v>
+      </c>
+      <c r="G170" t="s">
+        <v>344</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SASO", 1, 2445, 3007.35, "MA");</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B171" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <v>1734</v>
+      </c>
+      <c r="F171">
+        <v>2132.8200000000002</v>
+      </c>
+      <c r="G171" t="s">
+        <v>345</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SADS", 4, 1734, 2132.82, "MI");</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B172" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>1955</v>
+      </c>
+      <c r="F172">
+        <v>2404.65</v>
+      </c>
+      <c r="G172" t="s">
+        <v>346</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANT", 3, 1955, 2404.65, "JU");</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>2158</v>
+      </c>
+      <c r="F173">
+        <v>2654.34</v>
+      </c>
+      <c r="G173" t="s">
+        <v>347</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZR", 2, 2158, 2654.34, "VI");</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B174" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>2236</v>
+      </c>
+      <c r="F174">
+        <v>2750.2799999999997</v>
+      </c>
+      <c r="G174" t="s">
+        <v>348</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZL", 2, 2236, 2750.28, "SA");</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>1966</v>
+      </c>
+      <c r="F175">
+        <v>2418.1799999999998</v>
+      </c>
+      <c r="G175" t="s">
+        <v>349</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANE", 3, 1966, 2418.18, "DO");</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>2121</v>
+      </c>
+      <c r="F176">
+        <v>2608.83</v>
+      </c>
+      <c r="G176" t="s">
+        <v>343</v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZY", 3, 2121, 2608.83, "LU");</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B177" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>1606</v>
+      </c>
+      <c r="F177">
+        <v>1975.3799999999999</v>
+      </c>
+      <c r="G177" t="s">
+        <v>344</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAAV", 3, 1606, 1975.38, "MA");</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>1710</v>
+      </c>
+      <c r="F178">
+        <v>2103.3000000000002</v>
+      </c>
+      <c r="G178" t="s">
+        <v>345</v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAFS", 3, 1710, 2103.3, "MI");</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>1285</v>
+      </c>
+      <c r="F179">
+        <v>1580.55</v>
+      </c>
+      <c r="G179" t="s">
+        <v>346</v>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZT", 2, 1285, 1580.55, "JU");</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>1273</v>
+      </c>
+      <c r="F180">
+        <v>1565.79</v>
+      </c>
+      <c r="G180" t="s">
+        <v>347</v>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAST", 2, 1273, 1565.79, "VI");</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>2308</v>
+      </c>
+      <c r="F181">
+        <v>2838.84</v>
+      </c>
+      <c r="G181" t="s">
+        <v>348</v>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SANR", 2, 2308, 2838.84, "SA");</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1934</v>
+      </c>
+      <c r="F182">
+        <v>2378.8200000000002</v>
+      </c>
+      <c r="G182" t="s">
+        <v>349</v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVT", 1, 1934, 2378.82, "DO");</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>1573</v>
+      </c>
+      <c r="F183">
+        <v>1934.79</v>
+      </c>
+      <c r="G183" t="s">
+        <v>343</v>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZH", 2, 1573, 1934.79, "LU");</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>827</v>
+      </c>
+      <c r="F184">
+        <v>1017.21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>344</v>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAWH", 4, 827, 1017.21, "MA");</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+      <c r="E185">
+        <v>1052</v>
+      </c>
+      <c r="F185">
+        <v>1293.96</v>
+      </c>
+      <c r="G185" t="s">
+        <v>345</v>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAVV", 3, 1052, 1293.96, "MI");</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>1030</v>
+      </c>
+      <c r="F186">
+        <v>1266.9000000000001</v>
+      </c>
+      <c r="G186" t="s">
+        <v>346</v>
+      </c>
+      <c r="H186" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAOD", 3, 1030, 1266.9, "JU");</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>1378</v>
+      </c>
+      <c r="F187">
+        <v>1694.94</v>
+      </c>
+      <c r="G187" t="s">
+        <v>347</v>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAZV", 2, 1378, 1694.94, "VI");</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
+      <c r="E188">
+        <v>1286</v>
+      </c>
+      <c r="F188">
+        <v>1581.78</v>
+      </c>
+      <c r="G188" t="s">
+        <v>348</v>
+      </c>
+      <c r="H188" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAOR", 4, 1286, 1581.78, "SA");</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B189" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>2259</v>
+      </c>
+      <c r="F189">
+        <v>2778.57</v>
+      </c>
+      <c r="G189" t="s">
+        <v>349</v>
+      </c>
+      <c r="H189" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAAU", 2, 2259, 2778.57, "DO");</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1432</v>
+      </c>
+      <c r="F190">
+        <v>1761.36</v>
+      </c>
+      <c r="G190" t="s">
+        <v>343</v>
+      </c>
+      <c r="H190" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SABE" , "SAHZ", 1, 1432, 1761.36, "LU");</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B191" t="s">
+        <v>55</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>1591</v>
+      </c>
+      <c r="F191">
+        <v>1956.93</v>
+      </c>
+      <c r="G191" t="s">
+        <v>344</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAEZ", 2, 1591, 1956.93, "MA");</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B192" t="s">
+        <v>55</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192">
+        <v>884</v>
+      </c>
+      <c r="F192">
+        <v>1087.32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>345</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SARF", 3, 884, 1087.32, "MI");</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B193" t="s">
+        <v>55</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>2012</v>
+      </c>
+      <c r="F193">
+        <v>2474.7599999999998</v>
+      </c>
+      <c r="G193" t="s">
+        <v>346</v>
+      </c>
+      <c r="H193" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAMA", 1, 2012, 2474.76, "JU");</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B194" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>2432</v>
+      </c>
+      <c r="F194">
+        <v>2991.36</v>
+      </c>
+      <c r="G194" t="s">
+        <v>347</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZG", 2, 2432, 2991.36, "VI");</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B195" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>817</v>
+      </c>
+      <c r="F195">
+        <v>1004.91</v>
+      </c>
+      <c r="G195" t="s">
+        <v>348</v>
+      </c>
+      <c r="H195" t="str">
+        <f t="shared" ref="H195:H258" si="3">CONCATENATE("INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( """,B195,""" , """,C195, """, ",D195, ", ",E195, ", ",F195, ", """,G195, """);")</f>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAHR", 2, 817, 1004.91, "SA");</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B196" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D196">
+        <v>4</v>
+      </c>
+      <c r="E196">
+        <v>2160</v>
+      </c>
+      <c r="F196">
+        <v>2656.8</v>
+      </c>
+      <c r="G196" t="s">
+        <v>349</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAVJ", 4, 2160, 2656.8, "DO");</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B197" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>985</v>
+      </c>
+      <c r="F197">
+        <v>1211.55</v>
+      </c>
+      <c r="G197" t="s">
+        <v>343</v>
+      </c>
+      <c r="H197" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAAK", 4, 985, 1211.55, "LU");</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B198" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="E198">
+        <v>1178</v>
+      </c>
+      <c r="F198">
+        <v>1448.94</v>
+      </c>
+      <c r="G198" t="s">
+        <v>344</v>
+      </c>
+      <c r="H198" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SADJ", 3, 1178, 1448.94, "MA");</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B199" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>2078</v>
+      </c>
+      <c r="F199">
+        <v>2555.94</v>
+      </c>
+      <c r="G199" t="s">
+        <v>345</v>
+      </c>
+      <c r="H199" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAAJ", 1, 2078, 2555.94, "MI");</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B200" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>1153</v>
+      </c>
+      <c r="F200">
+        <v>1418.19</v>
+      </c>
+      <c r="G200" t="s">
+        <v>346</v>
+      </c>
+      <c r="H200" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAOL", 2, 1153, 1418.19, "JU");</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B201" t="s">
+        <v>55</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>1585</v>
+      </c>
+      <c r="F201">
+        <v>1949.55</v>
+      </c>
+      <c r="G201" t="s">
+        <v>347</v>
+      </c>
+      <c r="H201" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SACC", 3, 1585, 1949.55, "VI");</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B202" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>2128</v>
+      </c>
+      <c r="F202">
+        <v>2617.44</v>
+      </c>
+      <c r="G202" t="s">
+        <v>348</v>
+      </c>
+      <c r="H202" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SADL", 2, 2128, 2617.44, "SA");</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B203" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D203">
+        <v>4</v>
+      </c>
+      <c r="E203">
+        <v>1729</v>
+      </c>
+      <c r="F203">
+        <v>2126.67</v>
+      </c>
+      <c r="G203" t="s">
+        <v>349</v>
+      </c>
+      <c r="H203" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SANL", 4, 1729, 2126.67, "DO");</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B204" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>1202</v>
+      </c>
+      <c r="F204">
+        <v>1478.46</v>
+      </c>
+      <c r="G204" t="s">
+        <v>343</v>
+      </c>
+      <c r="H204" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAVH", 2, 1202, 1478.46, "LU");</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B205" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>2399</v>
+      </c>
+      <c r="F205">
+        <v>2950.77</v>
+      </c>
+      <c r="G205" t="s">
+        <v>344</v>
+      </c>
+      <c r="H205" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SATK", 4, 2399, 2950.77, "MA");</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B206" t="s">
+        <v>55</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>2277</v>
+      </c>
+      <c r="F206">
+        <v>2800.71</v>
+      </c>
+      <c r="G206" t="s">
+        <v>345</v>
+      </c>
+      <c r="H206" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAMM", 1, 2277, 2800.71, "MI");</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B207" t="s">
+        <v>55</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207">
+        <v>1339</v>
+      </c>
+      <c r="F207">
+        <v>1646.97</v>
+      </c>
+      <c r="G207" t="s">
+        <v>346</v>
+      </c>
+      <c r="H207" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZM", 3, 1339, 1646.97, "JU");</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B208" t="s">
+        <v>55</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>2364</v>
+      </c>
+      <c r="F208">
+        <v>2907.72</v>
+      </c>
+      <c r="G208" t="s">
+        <v>347</v>
+      </c>
+      <c r="H208" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAME", 2, 2364, 2907.72, "VI");</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B209" t="s">
+        <v>55</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1305</v>
+      </c>
+      <c r="F209">
+        <v>1605.1499999999999</v>
+      </c>
+      <c r="G209" t="s">
+        <v>343</v>
+      </c>
+      <c r="H209" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAOS", 1, 1305, 1605.15, "LU");</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B210" t="s">
+        <v>55</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>2344</v>
+      </c>
+      <c r="F210">
+        <v>2883.12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>344</v>
+      </c>
+      <c r="H210" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAEM", 2, 2344, 2883.12, "MA");</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B211" t="s">
+        <v>55</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>817</v>
+      </c>
+      <c r="F211">
+        <v>1004.91</v>
+      </c>
+      <c r="G211" t="s">
+        <v>345</v>
+      </c>
+      <c r="H211" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SARM", 3, 817, 1004.91, "MI");</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B212" t="s">
+        <v>55</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>1728</v>
+      </c>
+      <c r="F212">
+        <v>2125.44</v>
+      </c>
+      <c r="G212" t="s">
+        <v>346</v>
+      </c>
+      <c r="H212" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SADM", 1, 1728, 2125.44, "JU");</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B213" t="s">
+        <v>55</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213">
+        <v>1820</v>
+      </c>
+      <c r="F213">
+        <v>2238.6</v>
+      </c>
+      <c r="G213" t="s">
+        <v>347</v>
+      </c>
+      <c r="H213" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZO", 4, 1820, 2238.6, "VI");</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B214" t="s">
+        <v>55</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>2174</v>
+      </c>
+      <c r="F214">
+        <v>2674.02</v>
+      </c>
+      <c r="G214" t="s">
+        <v>348</v>
+      </c>
+      <c r="H214" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZN", 1, 2174, 2674.02, "SA");</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B215" t="s">
+        <v>55</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>839</v>
+      </c>
+      <c r="F215">
+        <v>1031.97</v>
+      </c>
+      <c r="G215" t="s">
+        <v>349</v>
+      </c>
+      <c r="H215" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZF", 4, 839, 1031.97, "DO");</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B216" t="s">
+        <v>55</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216">
+        <v>927</v>
+      </c>
+      <c r="F216">
+        <v>1140.21</v>
+      </c>
+      <c r="G216" t="s">
+        <v>343</v>
+      </c>
+      <c r="H216" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAAP", 3, 927, 1140.21, "LU");</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B217" t="s">
+        <v>55</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>853</v>
+      </c>
+      <c r="F217">
+        <v>1049.19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>344</v>
+      </c>
+      <c r="H217" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SARL", 2, 853, 1049.19, "MA");</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B218" t="s">
+        <v>55</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>2189</v>
+      </c>
+      <c r="F218">
+        <v>2692.47</v>
+      </c>
+      <c r="G218" t="s">
+        <v>345</v>
+      </c>
+      <c r="H218" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZP", 1, 2189, 2692.47, "MI");</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B219" t="s">
+        <v>55</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>1130</v>
+      </c>
+      <c r="F219">
+        <v>1389.9</v>
+      </c>
+      <c r="G219" t="s">
+        <v>346</v>
+      </c>
+      <c r="H219" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SASJ", 4, 1130, 1389.9, "JU");</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B220" t="s">
+        <v>55</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>1039</v>
+      </c>
+      <c r="F220">
+        <v>1277.97</v>
+      </c>
+      <c r="G220" t="s">
+        <v>347</v>
+      </c>
+      <c r="H220" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWP", 1, 1039, 1277.97, "VI");</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B221" t="s">
+        <v>55</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221">
+        <v>2038</v>
+      </c>
+      <c r="F221">
+        <v>2506.7399999999998</v>
+      </c>
+      <c r="G221" t="s">
+        <v>348</v>
+      </c>
+      <c r="H221" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SARP", 3, 2038, 2506.74, "SA");</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B222" t="s">
+        <v>55</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>2159</v>
+      </c>
+      <c r="F222">
+        <v>2655.57</v>
+      </c>
+      <c r="G222" t="s">
+        <v>349</v>
+      </c>
+      <c r="H222" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWD", 1, 2159, 2655.57, "DO");</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B223" t="s">
+        <v>55</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D223">
+        <v>4</v>
+      </c>
+      <c r="E223">
+        <v>2253</v>
+      </c>
+      <c r="F223">
+        <v>2771.19</v>
+      </c>
+      <c r="G223" t="s">
+        <v>343</v>
+      </c>
+      <c r="H223" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SARI", 4, 2253, 2771.19, "LU");</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B224" t="s">
+        <v>55</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224">
+        <v>2374</v>
+      </c>
+      <c r="F224">
+        <v>2920.02</v>
+      </c>
+      <c r="G224" t="s">
+        <v>344</v>
+      </c>
+      <c r="H224" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAVY", 4, 2374, 2920.02, "MA");</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B225" t="s">
+        <v>55</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+      <c r="E225">
+        <v>2477</v>
+      </c>
+      <c r="F225">
+        <v>3046.71</v>
+      </c>
+      <c r="G225" t="s">
+        <v>345</v>
+      </c>
+      <c r="H225" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWJ", 3, 2477, 3046.71, "MI");</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B226" t="s">
+        <v>55</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>1020</v>
+      </c>
+      <c r="F226">
+        <v>1254.5999999999999</v>
+      </c>
+      <c r="G226" t="s">
+        <v>346</v>
+      </c>
+      <c r="H226" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWU", 2, 1020, 1254.6, "JU");</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B227" t="s">
+        <v>55</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1045</v>
+      </c>
+      <c r="F227">
+        <v>1285.3499999999999</v>
+      </c>
+      <c r="G227" t="s">
+        <v>347</v>
+      </c>
+      <c r="H227" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SASA", 1, 1045, 1285.35, "VI");</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B228" t="s">
+        <v>55</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228">
+        <v>1484</v>
+      </c>
+      <c r="F228">
+        <v>1825.32</v>
+      </c>
+      <c r="G228" t="s">
+        <v>348</v>
+      </c>
+      <c r="H228" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SATR", 3, 1484, 1825.32, "SA");</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B229" t="s">
+        <v>55</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="E229">
+        <v>1846</v>
+      </c>
+      <c r="F229">
+        <v>2270.58</v>
+      </c>
+      <c r="G229" t="s">
+        <v>349</v>
+      </c>
+      <c r="H229" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SARE", 3, 1846, 2270.58, "DO");</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B230" t="s">
+        <v>55</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>2054</v>
+      </c>
+      <c r="F230">
+        <v>2526.42</v>
+      </c>
+      <c r="G230" t="s">
+        <v>343</v>
+      </c>
+      <c r="H230" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAOC", 2, 2054, 2526.42, "LU");</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B231" t="s">
+        <v>55</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231">
+        <v>2392</v>
+      </c>
+      <c r="F231">
+        <v>2942.16</v>
+      </c>
+      <c r="G231" t="s">
+        <v>344</v>
+      </c>
+      <c r="H231" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWG", 3, 2392, 2942.16, "MA");</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B232" t="s">
+        <v>55</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D232">
+        <v>4</v>
+      </c>
+      <c r="E232">
+        <v>1687</v>
+      </c>
+      <c r="F232">
+        <v>2075.0099999999998</v>
+      </c>
+      <c r="G232" t="s">
+        <v>345</v>
+      </c>
+      <c r="H232" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWE", 4, 1687, 2075.01, "MI");</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B233" t="s">
+        <v>55</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>959</v>
+      </c>
+      <c r="F233">
+        <v>1179.57</v>
+      </c>
+      <c r="G233" t="s">
+        <v>346</v>
+      </c>
+      <c r="H233" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWT", 2, 959, 1179.57, "JU");</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B234" t="s">
+        <v>55</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <v>1147</v>
+      </c>
+      <c r="F234">
+        <v>1410.81</v>
+      </c>
+      <c r="G234" t="s">
+        <v>347</v>
+      </c>
+      <c r="H234" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAAR", 4, 1147, 1410.81, "VI");</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B235" t="s">
+        <v>55</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235">
+        <v>2302</v>
+      </c>
+      <c r="F235">
+        <v>2831.46</v>
+      </c>
+      <c r="G235" t="s">
+        <v>348</v>
+      </c>
+      <c r="H235" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SASA", 3, 2302, 2831.46, "SA");</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B236" t="s">
+        <v>55</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>2399</v>
+      </c>
+      <c r="F236">
+        <v>2950.77</v>
+      </c>
+      <c r="G236" t="s">
+        <v>349</v>
+      </c>
+      <c r="H236" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SADF", 3, 2399, 2950.77, "DO");</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B237" t="s">
+        <v>55</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>1572</v>
+      </c>
+      <c r="F237">
+        <v>1933.56</v>
+      </c>
+      <c r="G237" t="s">
+        <v>343</v>
+      </c>
+      <c r="H237" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SANC", 2, 1572, 1933.56, "LU");</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B238" t="s">
+        <v>55</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1361</v>
+      </c>
+      <c r="F238">
+        <v>1674.03</v>
+      </c>
+      <c r="G238" t="s">
+        <v>344</v>
+      </c>
+      <c r="H238" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SANU", 1, 1361, 1674.03, "MA");</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B239" t="s">
+        <v>55</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>1982</v>
+      </c>
+      <c r="F239">
+        <v>2437.86</v>
+      </c>
+      <c r="G239" t="s">
+        <v>345</v>
+      </c>
+      <c r="H239" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAOU", 2, 1982, 2437.86, "MI");</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B240" t="s">
+        <v>55</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+      <c r="E240">
+        <v>2395</v>
+      </c>
+      <c r="F240">
+        <v>2945.85</v>
+      </c>
+      <c r="G240" t="s">
+        <v>346</v>
+      </c>
+      <c r="H240" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAMR", 3, 2395, 2945.85, "JU");</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B241" t="s">
+        <v>55</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+      <c r="E241">
+        <v>2383</v>
+      </c>
+      <c r="F241">
+        <v>2931.09</v>
+      </c>
+      <c r="G241" t="s">
+        <v>347</v>
+      </c>
+      <c r="H241" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SASO", 3, 2383, 2931.09, "VI");</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B242" t="s">
+        <v>55</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>1300</v>
+      </c>
+      <c r="F242">
+        <v>1599</v>
+      </c>
+      <c r="G242" t="s">
+        <v>348</v>
+      </c>
+      <c r="H242" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SADS", 2, 1300, 1599, "SA");</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B243" t="s">
+        <v>55</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>2431</v>
+      </c>
+      <c r="F243">
+        <v>2990.13</v>
+      </c>
+      <c r="G243" t="s">
+        <v>349</v>
+      </c>
+      <c r="H243" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SANT", 2, 2431, 2990.13, "DO");</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B244" t="s">
+        <v>55</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D244">
+        <v>4</v>
+      </c>
+      <c r="E244">
+        <v>1653</v>
+      </c>
+      <c r="F244">
+        <v>2033.19</v>
+      </c>
+      <c r="G244" t="s">
+        <v>343</v>
+      </c>
+      <c r="H244" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZR", 4, 1653, 2033.19, "LU");</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B245" t="s">
+        <v>55</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1945</v>
+      </c>
+      <c r="F245">
+        <v>2392.35</v>
+      </c>
+      <c r="G245" t="s">
+        <v>344</v>
+      </c>
+      <c r="H245" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZL", 1, 1945, 2392.35, "MA");</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B246" t="s">
+        <v>55</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1654</v>
+      </c>
+      <c r="F246">
+        <v>2034.42</v>
+      </c>
+      <c r="G246" t="s">
+        <v>345</v>
+      </c>
+      <c r="H246" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SANE", 1, 1654, 2034.42, "MI");</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B247" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>1778</v>
+      </c>
+      <c r="F247">
+        <v>2186.94</v>
+      </c>
+      <c r="G247" t="s">
+        <v>346</v>
+      </c>
+      <c r="H247" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZY", 2, 1778, 2186.94, "JU");</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B248" t="s">
+        <v>55</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>2246</v>
+      </c>
+      <c r="F248">
+        <v>2762.58</v>
+      </c>
+      <c r="G248" t="s">
+        <v>347</v>
+      </c>
+      <c r="H248" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAAV", 1, 2246, 2762.58, "VI");</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B249" t="s">
+        <v>55</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1985</v>
+      </c>
+      <c r="F249">
+        <v>2441.5500000000002</v>
+      </c>
+      <c r="G249" t="s">
+        <v>343</v>
+      </c>
+      <c r="H249" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAFS", 1, 1985, 2441.55, "LU");</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B250" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D250">
+        <v>4</v>
+      </c>
+      <c r="E250">
+        <v>2463</v>
+      </c>
+      <c r="F250">
+        <v>3029.49</v>
+      </c>
+      <c r="G250" t="s">
+        <v>344</v>
+      </c>
+      <c r="H250" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZT", 4, 2463, 3029.49, "MA");</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B251" t="s">
+        <v>55</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>1504</v>
+      </c>
+      <c r="F251">
+        <v>1849.92</v>
+      </c>
+      <c r="G251" t="s">
+        <v>345</v>
+      </c>
+      <c r="H251" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAST", 2, 1504, 1849.92, "MI");</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B252" t="s">
+        <v>55</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+      <c r="E252">
+        <v>1398</v>
+      </c>
+      <c r="F252">
+        <v>1719.54</v>
+      </c>
+      <c r="G252" t="s">
+        <v>346</v>
+      </c>
+      <c r="H252" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SANR", 4, 1398, 1719.54, "JU");</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B253" t="s">
+        <v>55</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <v>813</v>
+      </c>
+      <c r="F253">
+        <v>999.99</v>
+      </c>
+      <c r="G253" t="s">
+        <v>347</v>
+      </c>
+      <c r="H253" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAVT", 4, 813, 999.99, "VI");</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B254" t="s">
+        <v>55</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+      <c r="E254">
+        <v>2288</v>
+      </c>
+      <c r="F254">
+        <v>2814.24</v>
+      </c>
+      <c r="G254" t="s">
+        <v>348</v>
+      </c>
+      <c r="H254" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZH", 4, 2288, 2814.24, "SA");</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B255" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>1916</v>
+      </c>
+      <c r="F255">
+        <v>2356.6799999999998</v>
+      </c>
+      <c r="G255" t="s">
+        <v>349</v>
+      </c>
+      <c r="H255" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAWH", 2, 1916, 2356.68, "DO");</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B256" t="s">
+        <v>55</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1321</v>
+      </c>
+      <c r="F256">
+        <v>1624.83</v>
+      </c>
+      <c r="G256" t="s">
+        <v>343</v>
+      </c>
+      <c r="H256" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAVV", 1, 1321, 1624.83, "LU");</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B257" t="s">
+        <v>55</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>941</v>
+      </c>
+      <c r="F257">
+        <v>1157.43</v>
+      </c>
+      <c r="G257" t="s">
+        <v>344</v>
+      </c>
+      <c r="H257" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAOD", 2, 941, 1157.43, "MA");</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B258" t="s">
+        <v>55</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>2049</v>
+      </c>
+      <c r="F258">
+        <v>2520.27</v>
+      </c>
+      <c r="G258" t="s">
+        <v>345</v>
+      </c>
+      <c r="H258" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAZV", 2, 2049, 2520.27, "MI");</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B259" t="s">
+        <v>55</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259">
+        <v>2313</v>
+      </c>
+      <c r="F259">
+        <v>2844.99</v>
+      </c>
+      <c r="G259" t="s">
+        <v>346</v>
+      </c>
+      <c r="H259" t="str">
+        <f t="shared" ref="H259:H261" si="4">CONCATENATE("INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( """,B259,""" , """,C259, """, ",D259, ", ",E259, ", ",F259, ", """,G259, """);")</f>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAOR", 3, 2313, 2844.99, "JU");</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B260" t="s">
+        <v>55</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>2400</v>
+      </c>
+      <c r="F260">
+        <v>2952</v>
+      </c>
+      <c r="G260" t="s">
+        <v>347</v>
+      </c>
+      <c r="H260" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAAU", 2, 2400, 2952, "VI");</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B261" t="s">
+        <v>55</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <v>1347</v>
+      </c>
+      <c r="F261">
+        <v>1656.81</v>
+      </c>
+      <c r="G261" t="s">
+        <v>348</v>
+      </c>
+      <c r="H261" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO cronograma ( c_origen, c_destino, avion_cod, precio_economy, precio_primera, dia) VALUES ( "SACO" , "SAHZ", 2, 1347, 1656.81, "SA");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="149.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("INSERT INTO avion ( avion_cod, avion_capacidad, avion_filas_economy, avion_filas_primera, avion_col_economy, avion_col_primera) VALUES ( ",B2," , ",C2,", ",D2, ", ",E2, ", ",F2, ", ",G2, ");")</f>
+        <v>INSERT INTO avion ( avion_cod, avion_capacidad, avion_filas_economy, avion_filas_primera, avion_col_economy, avion_col_primera) VALUES ( 1 , 30, 10, 0, 3, 0);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>80</v>
+      </c>
+      <c r="D3" s="10">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H5" si="0">CONCATENATE("INSERT INTO avion ( avion_cod, avion_capacidad, avion_filas_economy, avion_filas_primera, avion_col_economy, avion_col_primera) VALUES ( ",B3," , ",C3,", ",D3, ", ",E3, ", ",F3, ", ",G3, ");")</f>
+        <v>INSERT INTO avion ( avion_cod, avion_capacidad, avion_filas_economy, avion_filas_primera, avion_col_economy, avion_col_primera) VALUES ( 2 , 80, 14, 5, 5, 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>125</v>
+      </c>
+      <c r="D4" s="10">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO avion ( avion_cod, avion_capacidad, avion_filas_economy, avion_filas_primera, avion_col_economy, avion_col_primera) VALUES ( 3 , 125, 21, 10, 5, 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>150</v>
+      </c>
+      <c r="D5" s="10">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO avion ( avion_cod, avion_capacidad, avion_filas_economy, avion_filas_primera, avion_col_economy, avion_col_primera) VALUES ( 4 , 150, 30, 10, 4, 3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/prograWebII/TPFinal/requerimiento/docs/Datos-TP.xlsx
+++ b/prograWebII/TPFinal/requerimiento/docs/Datos-TP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Aeropuertos" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="380">
   <si>
     <t>Ciudad</t>
   </si>
@@ -1092,6 +1092,81 @@
   </si>
   <si>
     <t>avion_col_primera</t>
+  </si>
+  <si>
+    <t>Alto Rio Senguer</t>
+  </si>
+  <si>
+    <t>Bahia Blanca</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Isla Martin Garcia</t>
+  </si>
+  <si>
+    <t>Junin</t>
+  </si>
+  <si>
+    <t>Olavarria</t>
+  </si>
+  <si>
+    <t>Rio Cuarto</t>
+  </si>
+  <si>
+    <t>Rio Gallegos</t>
+  </si>
+  <si>
+    <t>Rio Grande</t>
+  </si>
+  <si>
+    <t>Rio Turbio</t>
+  </si>
+  <si>
+    <t>San Martin de los Andes</t>
+  </si>
+  <si>
+    <t>Termas de Rio Hondo</t>
+  </si>
+  <si>
+    <t>Coronel Suarez</t>
+  </si>
+  <si>
+    <t>Parana</t>
+  </si>
+  <si>
+    <t>Puerto San Julian</t>
+  </si>
+  <si>
+    <t>San Miguel de Tucuman</t>
+  </si>
+  <si>
+    <t>Jose C. Paz</t>
+  </si>
+  <si>
+    <t>Neuquen</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>El Bolson</t>
+  </si>
+  <si>
+    <t>Moron</t>
+  </si>
+  <si>
+    <t>Pehuajo</t>
+  </si>
+  <si>
+    <t>San Ramon de la Nueva Oran</t>
+  </si>
+  <si>
+    <t>Curuzu Cuatia</t>
+  </si>
+  <si>
+    <t>Puerto Iguazu</t>
   </si>
 </sst>
 </file>
@@ -1321,12 +1396,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1337,6 +1406,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,7 +1701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3064,14 +3139,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="4" t="s">
         <v>328</v>
       </c>
@@ -14743,9 +14818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14756,29 +14831,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>4</v>
+      <c r="C2" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B2,""" , """,C2, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVR" , "Alto Río Senguer");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVR" , "Alto Rio Senguer");</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14792,7 +14867,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B3,""" , """,C3, """);")</f>
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B3,""" , """,C3, """);")</f>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZA" , "Azul");</v>
       </c>
     </row>
@@ -14804,11 +14879,11 @@
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZB" , "Bahía Blanca");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZB" , "Bahia Blanca");</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14834,11 +14909,11 @@
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B6,""" , """,C6, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZI" , "Bolívar");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZI" , "Bolivar");</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14852,7 +14927,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B7,""" , """,C7, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADO" , "Campo de Mayo");</v>
       </c>
     </row>
@@ -14867,7 +14942,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B8,""" , """,C8, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAHE" , "Caviahue");</v>
       </c>
     </row>
@@ -14882,7 +14957,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B9,""" , """,C9, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANW" , "Ceres");</v>
       </c>
     </row>
@@ -14897,7 +14972,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B10,""" , """,C10, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACT" , "Chamical");</v>
       </c>
     </row>
@@ -14912,7 +14987,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B11,""" , """,C11, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACP" , "Chepes");</v>
       </c>
     </row>
@@ -14927,7 +15002,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B12,""" , """,C12, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANO" , "Chilecito");</v>
       </c>
     </row>
@@ -14942,7 +15017,7 @@
         <v>47</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B13,""" , """,C13, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATC" , "Clorinda");</v>
       </c>
     </row>
@@ -14957,7 +15032,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B14,""" , """,C14, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVC" , "Comodoro Rivadavia");</v>
       </c>
     </row>
@@ -14969,11 +15044,11 @@
         <v>55</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B15,""" , """,C15, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACO" , "Córdoba");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACO" , "Cordoba");</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14987,7 +15062,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B16,""" , """,C16, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAC" , "Concordia");</v>
       </c>
     </row>
@@ -14999,11 +15074,11 @@
         <v>62</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>61</v>
+        <v>367</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B17,""" , """,C17, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZC" , "Coronel Suárez");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZC" , "Coronel Suarez");</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15017,7 +15092,7 @@
         <v>64</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B18,""" , """,C18, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARC" , "Corrientes");</v>
       </c>
     </row>
@@ -15029,11 +15104,11 @@
         <v>68</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B19,""" , """,C19, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATU" , "Curuzú Cuatiá");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATU" , "Curuzu Cuatia");</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15047,7 +15122,7 @@
         <v>70</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B20,""" , """,C20, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZW" , "Cutral-Co");</v>
       </c>
     </row>
@@ -15062,7 +15137,7 @@
         <v>73</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B21,""" , """,C21, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZD" , "Dolores");</v>
       </c>
     </row>
@@ -15077,7 +15152,7 @@
         <v>76</v>
       </c>
       <c r="D22" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B22,""" , """,C22, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADD" , "Don Torcuato");</v>
       </c>
     </row>
@@ -15089,11 +15164,11 @@
         <v>81</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="D23" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B23,""" , """,C23, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVB" , "El Bolsón");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVB" , "El Bolson");</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -15107,7 +15182,7 @@
         <v>83</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B24,""" , """,C24, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWC" , "El Calafate");</v>
       </c>
     </row>
@@ -15122,7 +15197,7 @@
         <v>83</v>
       </c>
       <c r="D25" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B25,""" , """,C25, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWA" , "El Calafate");</v>
       </c>
     </row>
@@ -15137,7 +15212,7 @@
         <v>88</v>
       </c>
       <c r="D26" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B26,""" , """,C26, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADP" , "El Palomar");</v>
       </c>
     </row>
@@ -15152,7 +15227,7 @@
         <v>91</v>
       </c>
       <c r="D27" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B27,""" , """,C27, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVE" , "Esquel");</v>
       </c>
     </row>
@@ -15167,7 +15242,7 @@
         <v>94</v>
       </c>
       <c r="D28" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B28,""" , """,C28, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAEZ" , "Ezeiza");</v>
       </c>
     </row>
@@ -15182,7 +15257,7 @@
         <v>48</v>
       </c>
       <c r="D29" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B29,""" , """,C29, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARF" , "Formosa");</v>
       </c>
     </row>
@@ -15197,7 +15272,7 @@
         <v>99</v>
       </c>
       <c r="D30" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B30,""" , """,C30, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAMA" , "General Alvear");</v>
       </c>
     </row>
@@ -15212,7 +15287,7 @@
         <v>103</v>
       </c>
       <c r="D31" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B31,""" , """,C31, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZG" , "General Pico");</v>
       </c>
     </row>
@@ -15227,7 +15302,7 @@
         <v>107</v>
       </c>
       <c r="D32" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B32,""" , """,C32, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAHR" , "General Roca");</v>
       </c>
     </row>
@@ -15242,7 +15317,7 @@
         <v>110</v>
       </c>
       <c r="D33" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B33,""" , """,C33, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVJ" , "Ingeniero Jacobacci");</v>
       </c>
     </row>
@@ -15254,11 +15329,11 @@
         <v>114</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
       <c r="D34" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B34,""" , """,C34, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAK" , "Isla Martín García");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAK" , "Isla Martin Garcia");</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -15269,11 +15344,11 @@
         <v>117</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="D35" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B35,""" , """,C35, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADJ" , "José C. Paz");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADJ" , "Jose C. Paz");</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -15284,11 +15359,11 @@
         <v>120</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>119</v>
+        <v>359</v>
       </c>
       <c r="D36" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B36,""" , """,C36, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAJ" , "Junín");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAJ" , "Junin");</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -15302,7 +15377,7 @@
         <v>122</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B37,""" , """,C37, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOL" , "Laboulaye");</v>
       </c>
     </row>
@@ -15317,7 +15392,7 @@
         <v>125</v>
       </c>
       <c r="D38" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B38,""" , """,C38, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SACC" , "La Cumbre");</v>
       </c>
     </row>
@@ -15332,7 +15407,7 @@
         <v>128</v>
       </c>
       <c r="D39" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B39,""" , """,C39, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADL" , "La Plata");</v>
       </c>
     </row>
@@ -15347,7 +15422,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B40,""" , """,C40, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANL" , "La Rioja");</v>
       </c>
     </row>
@@ -15362,7 +15437,7 @@
         <v>133</v>
       </c>
       <c r="D41" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B41,""" , """,C41, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVH" , "Las Heras");</v>
       </c>
     </row>
@@ -15377,7 +15452,7 @@
         <v>136</v>
       </c>
       <c r="D42" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B42,""" , """,C42, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATK" , "Las Lomitas");</v>
       </c>
     </row>
@@ -15392,7 +15467,7 @@
         <v>139</v>
       </c>
       <c r="D43" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B43,""" , """,C43, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAMM" , "Malargüe");</v>
       </c>
     </row>
@@ -15407,7 +15482,7 @@
         <v>142</v>
       </c>
       <c r="D44" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B44,""" , """,C44, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZM" , "Mar del Plata");</v>
       </c>
     </row>
@@ -15422,7 +15497,7 @@
         <v>100</v>
       </c>
       <c r="D45" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B45,""" , """,C45, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAME" , "Mendoza");</v>
       </c>
     </row>
@@ -15437,7 +15512,7 @@
         <v>147</v>
       </c>
       <c r="D46" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B46,""" , """,C46, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOS" , "Merlo");</v>
       </c>
     </row>
@@ -15452,7 +15527,7 @@
         <v>151</v>
       </c>
       <c r="D47" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B47,""" , """,C47, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAEM" , "Miramar");</v>
       </c>
     </row>
@@ -15467,7 +15542,7 @@
         <v>154</v>
       </c>
       <c r="D48" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B48,""" , """,C48, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARM" , "Monte Caseros");</v>
       </c>
     </row>
@@ -15479,11 +15554,11 @@
         <v>158</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="D49" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B49,""" , """,C49, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADM" , "Morón");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SADM" , "Moron");</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -15497,7 +15572,7 @@
         <v>160</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B50,""" , """,C50, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZO" , "Necochea");</v>
       </c>
     </row>
@@ -15509,11 +15584,11 @@
         <v>163</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="D51" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B51,""" , """,C51, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZN" , "Neuquén");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZN" , "Neuquen");</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -15524,11 +15599,11 @@
         <v>166</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>165</v>
+        <v>360</v>
       </c>
       <c r="D52" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B52,""" , """,C52, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZF" , "Olavarría");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZF" , "Olavarria");</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -15539,11 +15614,11 @@
         <v>169</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="D53" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B53,""" , """,C53, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAP" , "Paraná");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAAP" , "Parana");</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -15557,7 +15632,7 @@
         <v>171</v>
       </c>
       <c r="D54" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B54,""" , """,C54, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARL" , "Paso de los Libres");</v>
       </c>
     </row>
@@ -15569,11 +15644,11 @@
         <v>175</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>174</v>
+        <v>376</v>
       </c>
       <c r="D55" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B55,""" , """,C55, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZP" , "Pehuajó");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZP" , "Pehuajo");</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -15587,7 +15662,7 @@
         <v>177</v>
       </c>
       <c r="D56" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B56,""" , """,C56, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SASJ" , "Perico");</v>
       </c>
     </row>
@@ -15602,7 +15677,7 @@
         <v>181</v>
       </c>
       <c r="D57" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B57,""" , """,C57, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWP" , "Perito Moreno");</v>
       </c>
     </row>
@@ -15617,7 +15692,7 @@
         <v>184</v>
       </c>
       <c r="D58" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B58,""" , """,C58, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARP" , "Posadas");</v>
       </c>
     </row>
@@ -15632,7 +15707,7 @@
         <v>188</v>
       </c>
       <c r="D59" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B59,""" , """,C59, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWD" , "Puerto Deseado");</v>
       </c>
     </row>
@@ -15644,11 +15719,11 @@
         <v>192</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>191</v>
+        <v>379</v>
       </c>
       <c r="D60" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B60,""" , """,C60, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARI" , "Puerto Iguazú");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARI" , "Puerto Iguazu");</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -15662,7 +15737,7 @@
         <v>194</v>
       </c>
       <c r="D61" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B61,""" , """,C61, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAVY" , "Puerto Madryn");</v>
       </c>
     </row>
@@ -15674,11 +15749,11 @@
         <v>198</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>197</v>
+        <v>369</v>
       </c>
       <c r="D62" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B62,""" , """,C62, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWJ" , "Puerto San Julián");</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWJ" , "Puerto San Julian");</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -15692,7 +15767,7 @@
         <v>200</v>
       </c>
       <c r="D63" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B63,""" , """,C63, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWU" , "Puerto Santa Cruz");</v>
       </c>
     </row>
@@ -15707,7 +15782,7 @@
         <v>203</v>
       </c>
       <c r="D64" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B64,""" , """,C64, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SASA" , "Presidencia Roque Saenz Peña");</v>
       </c>
     </row>
@@ -15722,7 +15797,7 @@
         <v>207</v>
       </c>
       <c r="D65" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B65,""" , """,C65, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SATR" , "Reconquista");</v>
       </c>
     </row>
@@ -15737,7 +15812,7 @@
         <v>210</v>
       </c>
       <c r="D66" t="str">
-        <f>CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B66,""" , """,C66, """);")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SARE" , "Resistencia");</v>
       </c>
     </row>
@@ -15749,11 +15824,11 @@
         <v>214</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>213</v>
+        <v>361</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D98" si="1">CONCATENATE("INSERT INTO ciudad( c_cod, c_desc) VALUES ( """,B67,""" , """,C67, """);")</f>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOC" , "Río Cuarto");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAOC" , "Rio Cuarto");</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -15764,11 +15839,11 @@
         <v>217</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>216</v>
+        <v>362</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWG" , "Río Gallegos");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWG" , "Rio Gallegos");</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -15779,11 +15854,11 @@
         <v>221</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWE" , "Río Grande");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWE" , "Rio Grande");</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -15794,11 +15869,11 @@
         <v>223</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWT" , "Río Turbio");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAWT" , "Rio Turbio");</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -15899,11 +15974,11 @@
         <v>244</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SASO" , "San Ramón de la Nueva Orán");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SASO" , "San Ramon de la Nueva Oran");</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -15929,11 +16004,11 @@
         <v>251</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANT" , "San Miguel de Tucumán");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANT" , "San Miguel de Tucuman");</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -15989,11 +16064,11 @@
         <v>263</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZY" , "San Martín de los Andes");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SAZY" , "San Martin de los Andes");</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -16064,11 +16139,11 @@
         <v>278</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANR" , "Termas de Río Hondo");</v>
+        <v>INSERT INTO ciudad( c_cod, c_desc) VALUES ( "SANR" , "Termas de Rio Hondo");</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -16210,7 +16285,7 @@
       <c r="A98" s="9">
         <v>97</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -16251,23 +16326,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>342</v>
       </c>
     </row>
@@ -22520,7 +22595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
@@ -22536,23 +22611,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>354</v>
       </c>
     </row>
